--- a/config_4.6/fish_yutu_random_2.xlsx
+++ b/config_4.6/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,10 +1229,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G7" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G8" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G9" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G10" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="23">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="G11" s="23">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/config_4.6/fish_yutu_random_2.xlsx
+++ b/config_4.6/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1312,10 +1312,10 @@
         <v>75</v>
       </c>
       <c r="C11" s="21">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="D11" s="21">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>79</v>
